--- a/src/test/test_steady_multizone/data/検証ブック.xlsx
+++ b/src/test/test_steady_multizone/data/検証ブック.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\src\test\test_steady_multizone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3AD3BCC-2D6D-41DC-85A1-F47BC17F40E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC15529C-65C3-418D-93D7-451059EAF8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="1110" windowWidth="22185" windowHeight="14325" xr2:uid="{DEF0C7E5-9106-4717-91EF-198BB606584D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEF0C7E5-9106-4717-91EF-198BB606584D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$165</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="32767" iterateDelta="1E-13"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1422,10 +1422,10 @@
   <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H147" sqref="H147"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1465,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>13.407439712256251</v>
+        <v>13.40346455803942</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1489,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>9.6938765019981084</v>
+        <v>9.6899704960918775</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>11.55065810712718</v>
+        <v>11.546717527065651</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1513,7 +1513,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>13.40743950409375</v>
+        <v>13.4034645580393</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>-7.0624437600367322</v>
+        <v>-7.0641725581936026</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1553,7 +1553,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>4.8184325178946779</v>
+        <v>4.8086321662671292</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1577,7 +1577,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>4.4013247716025834</v>
+        <v>4.3916637860954797</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1585,7 +1585,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>4.6098786447486306</v>
+        <v>4.6001479761813044</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1601,7 +1601,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>4.8184336120543723</v>
+        <v>4.8086321662668041</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1625,7 +1625,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>-10.34213954331589</v>
+        <v>-10.346506567161381</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1641,7 +1641,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>10.461757862191391</v>
+        <v>10.457840275331449</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>10.92360230230913</v>
+        <v>10.91965248121199</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1673,7 +1673,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>-18.743986052237599</v>
+        <v>-18.74452813942726</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1689,7 +1689,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>36.821023125810747</v>
+        <v>36.820303533849732</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>3.6154074147146371</v>
+        <v>3.6151550788845142</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1716,7 +1716,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>10.194656816344271</v>
+        <v>10.19073282042519</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1724,7 +1724,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>10.422372572909801</v>
+        <v>10.41842456102027</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>10.85560027838714</v>
+        <v>10.851651150855281</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1756,7 +1756,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>-57.916935807820437</v>
+        <v>-57.916057090081758</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>111.9400177254919</v>
+        <v>111.93899988821831</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>3.601538794511427</v>
+        <v>3.6015295198757631</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1799,7 +1799,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3">
-        <v>10.156296120569261</v>
+        <v>10.152323837031251</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1807,7 +1807,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>10.422372572909801</v>
+        <v>10.41842456102027</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1815,7 +1815,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>10.85560027838714</v>
+        <v>10.851651150855281</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1839,7 +1839,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>-57.916935807820757</v>
+        <v>-57.916057090081758</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1855,7 +1855,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3">
-        <v>111.9400177254918</v>
+        <v>111.93899988821831</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>3.6015387945113968</v>
+        <v>3.6015295198757631</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1882,7 +1882,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3">
-        <v>10.156296120569261</v>
+        <v>10.152323837031251</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1890,7 +1890,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>9.6673905179506239</v>
+        <v>9.6635347240738341</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1898,7 +1898,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3">
-        <v>10.107277685304931</v>
+        <v>10.103336190054369</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1922,7 +1922,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>15.019777557781779</v>
+        <v>15.006188606398609</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1938,7 +1938,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>65.450860900348431</v>
+        <v>65.448772094397825</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>3.218825538325198</v>
+        <v>3.2181984280318612</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1965,7 +1965,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3">
-        <v>9.4295563853604829</v>
+        <v>9.4258724759215244</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1973,7 +1973,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>11.00708996815643</v>
+        <v>11.002985210921739</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3">
-        <v>11.32878250570848</v>
+        <v>11.32482855210309</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2005,7 +2005,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3">
-        <v>-206.6130339923703</v>
+        <v>-206.58543575883991</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2021,7 +2021,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>300.04371801247783</v>
+        <v>300.05991838971079</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3">
-        <v>3.7372273608042832</v>
+        <v>3.738979305234833</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2048,7 +2048,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3">
-        <v>10.730890349245181</v>
+        <v>10.726792123736541</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2056,7 +2056,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3">
-        <v>4.3756492375929001</v>
+        <v>4.3662316590435761</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2064,7 +2064,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3">
-        <v>4.5688328322820144</v>
+        <v>4.5590419354322558</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2088,7 +2088,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>2.026601317657319</v>
+        <v>2.0167739425979678</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2104,7 +2104,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3">
-        <v>5.5347910037722219</v>
+        <v>5.5300063402944133</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3">
-        <v>1.5122784642859151</v>
+        <v>1.509356056578478</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2131,7 +2131,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3">
-        <v>4.2639243023120663</v>
+        <v>4.2547121678951028</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3">
-        <v>4.3799072164582711</v>
+        <v>4.370472501222153</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2147,7 +2147,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3">
-        <v>4.5619993399914218</v>
+        <v>4.5522087019927566</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2171,7 +2171,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>6.2620154293699244</v>
+        <v>6.231343564826731</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2187,7 +2187,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3">
-        <v>16.444698803865251</v>
+        <v>16.430987439186609</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3">
-        <v>1.513780948882343</v>
+        <v>1.5108220669342209</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2214,7 +2214,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3">
-        <v>4.2680712797988836</v>
+        <v>4.2588446932002828</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2222,7 +2222,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3">
-        <v>4.3799072164582711</v>
+        <v>4.370472501222153</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2230,7 +2230,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3">
-        <v>4.5619993399914218</v>
+        <v>4.5522087019927566</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2254,7 +2254,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3">
-        <v>6.2620154293699244</v>
+        <v>6.231343564826731</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2270,7 +2270,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3">
-        <v>16.444698803865251</v>
+        <v>16.430987439186609</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2289,7 +2289,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3">
-        <v>1.513780948882343</v>
+        <v>1.5108220669342209</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2297,7 +2297,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3">
-        <v>4.2680712797988818</v>
+        <v>4.2588446932002828</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2305,7 +2305,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3">
-        <v>4.2914845001303989</v>
+        <v>4.2821271448954858</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2313,7 +2313,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3">
-        <v>4.4868007447765477</v>
+        <v>4.4770129552831053</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3">
-        <v>26.508533398918711</v>
+        <v>26.437544462618021</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2353,7 +2353,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3">
-        <v>9.2215903108748805</v>
+        <v>9.2138378740037581</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2372,7 +2372,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3">
-        <v>1.4292049483917399</v>
+        <v>1.42605529346487</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2380,7 +2380,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3">
-        <v>4.1858827161420846</v>
+        <v>4.1768137173323394</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2388,7 +2388,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3">
-        <v>4.4785846479630571</v>
+        <v>4.4690350447705569</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2396,7 +2396,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3">
-        <v>4.6095492056565108</v>
+        <v>4.5997567664800414</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2420,7 +2420,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3">
-        <v>-4.4443283039288382</v>
+        <v>-4.4835127520301414</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2436,7 +2436,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3">
-        <v>42.48098374145259</v>
+        <v>42.449640187071537</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3">
-        <v>1.521466217500947</v>
+        <v>1.518645097401653</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2463,7 +2463,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3">
-        <v>4.3661407560373409</v>
+        <v>4.3568548898275248</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2471,7 +2471,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3">
-        <v>4.9896776438407544</v>
+        <v>4.9878683400223922</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3">
-        <v>10.891879763341899</v>
+        <v>10.88793026578883</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2503,7 +2503,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3">
-        <v>264.52014570741233</v>
+        <v>264.4020655035992</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2519,7 +2519,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3">
-        <v>210.44405171038741</v>
+        <v>210.3899054504258</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3">
-        <v>47.496419741779967</v>
+        <v>47.479197095402519</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2554,7 +2554,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3">
-        <v>2.091567068763672</v>
+        <v>2.0870818175793171</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2562,7 +2562,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3">
-        <v>4.5656450488460489</v>
+        <v>4.5558542727487827</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2586,7 +2586,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3">
-        <v>130.92328433981231</v>
+        <v>130.62921368288301</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2602,7 +2602,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3">
-        <v>68.171636228275162</v>
+        <v>68.038758717195307</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3">
-        <v>19.909492056808741</v>
+        <v>19.866797240007831</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -2637,7 +2637,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="3">
-        <v>9.0511660219290757</v>
+        <v>9.0460485379020916</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="5">
-        <v>10.85560027838714</v>
+        <v>10.851651150855281</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -2653,7 +2653,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="5">
-        <v>4.5619995562097184</v>
+        <v>4.5522087019926918</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -2669,7 +2669,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3">
-        <v>61.650968395055123</v>
+        <v>61.753823968431767</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3">
-        <v>163.36026338726899</v>
+        <v>163.40310075515001</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="7">
-        <v>15.00074878548827</v>
+        <v>15.01046164823877</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -2712,7 +2712,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3">
-        <v>8.050665781156134</v>
+        <v>8.045323019259051</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3">
-        <v>6.3730498416481884</v>
+        <v>6.357811312854138</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2728,11 +2728,11 @@
         <v>156</v>
       </c>
       <c r="B157" s="5">
-        <v>4.5619993399914218</v>
+        <v>4.5522087019927566</v>
       </c>
       <c r="C157" s="8">
         <f>ABS(B157-B148)</f>
-        <v>2.1621829660034564E-7</v>
+        <v>6.4837024638109142E-14</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>168</v>
@@ -2743,11 +2743,11 @@
         <v>157</v>
       </c>
       <c r="B158" s="5">
-        <v>10.855600236773119</v>
+        <v>10.851651150855259</v>
       </c>
       <c r="C158" s="8">
         <f>ABS(B158-B147)</f>
-        <v>4.1614020673819141E-8</v>
+        <v>2.1316282072803006E-14</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>169</v>
@@ -2766,7 +2766,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3">
-        <v>-167.53812161119939</v>
+        <v>-167.0627064657223</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -2782,7 +2782,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3">
-        <v>-58.298149640756613</v>
+        <v>-58.094217997012827</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2801,11 +2801,11 @@
         <v>163</v>
       </c>
       <c r="B164" s="7">
-        <v>-15.055751416797071</v>
+        <v>-15.01046163084901</v>
       </c>
       <c r="C164" s="8">
         <f>ABS(B164+B154)</f>
-        <v>5.5002631308800787E-2</v>
+        <v>1.7389760742503313E-8</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>170</v>
@@ -2816,7 +2816,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3">
-        <v>6.8757938506820357</v>
+        <v>6.8581012451185037</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -2836,14 +2836,14 @@
       </c>
       <c r="B169">
         <f>SUMIF($C$32:$C$162,A169,$B$32:$B$162)</f>
-        <v>999.99995258727711</v>
+        <v>999.99999999997078</v>
       </c>
       <c r="C169">
         <v>4.3276983868523189E-5</v>
       </c>
       <c r="D169">
         <f>SUM(B169:C169)</f>
-        <v>999.999995864261</v>
+        <v>1000.0000432769547</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -2851,15 +2851,15 @@
         <v>1</v>
       </c>
       <c r="B170">
-        <f t="shared" ref="B170:B171" si="0">SUMIF($C$32:$C$162,A170,$B$32:$B$162)</f>
-        <v>100.00024925134875</v>
+        <f t="shared" ref="B170" si="0">SUMIF($C$32:$C$162,A170,$B$32:$B$162)</f>
+        <v>99.999999999925421</v>
       </c>
       <c r="C170">
         <v>-2.2747580046651451E-4</v>
       </c>
       <c r="D170">
         <f>SUM(B170:C170)</f>
-        <v>100.00002177554828</v>
+        <v>99.99977252412495</v>
       </c>
     </row>
   </sheetData>
